--- a/Data_Profiling/Data_Profiling.xlsx
+++ b/Data_Profiling/Data_Profiling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\Proyectos\UesDataEngineering2023_G01\Data_Profiling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\Proyectos\UesDataEngineering2023_G01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF5D37-2146-42C1-A0AE-A835D6BEB147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A6999B-1AD3-419A-81D1-5CBB4143593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="4" xr2:uid="{F15E01CF-43F9-4984-9F20-9FCE382FE8DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{F15E01CF-43F9-4984-9F20-9FCE382FE8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="account_account" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="account_account_tag" sheetId="3" r:id="rId3"/>
     <sheet name="account_move_line" sheetId="4" r:id="rId4"/>
     <sheet name="res_company" sheetId="8" r:id="rId5"/>
+    <sheet name="dw_account_order" sheetId="10" r:id="rId6"/>
+    <sheet name="dw_account_sum" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc140081706" localSheetId="2">account_account_tag!$B$1</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="289">
   <si>
     <t>Analisis Numérico</t>
   </si>
@@ -176,9 +178,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2023-07-08</t>
-  </si>
-  <si>
     <t>2023-07-07</t>
   </si>
   <si>
@@ -792,6 +791,129 @@
   </si>
   <si>
     <t>point_of_sale_use_ticket_qr_code</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>has_parent</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>12:10:50</t>
+  </si>
+  <si>
+    <t>12:10:56</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>account_group</t>
+  </si>
+  <si>
+    <t>parent_account_code</t>
+  </si>
+  <si>
+    <t>parent_account_name</t>
+  </si>
+  <si>
+    <t>Row count</t>
+  </si>
+  <si>
+    <t>Null count</t>
+  </si>
+  <si>
+    <t>Blank count</t>
+  </si>
+  <si>
+    <t>Entirely uppercase count</t>
+  </si>
+  <si>
+    <t>Entirely lowercase count</t>
+  </si>
+  <si>
+    <t>Total char count</t>
+  </si>
+  <si>
+    <t>Max chars</t>
+  </si>
+  <si>
+    <t>Min chars</t>
+  </si>
+  <si>
+    <t>Avg chars</t>
+  </si>
+  <si>
+    <t>Max white spaces</t>
+  </si>
+  <si>
+    <t>Min white spaces</t>
+  </si>
+  <si>
+    <t>Avg white spaces</t>
+  </si>
+  <si>
+    <t>Uppercase chars</t>
+  </si>
+  <si>
+    <t>Uppercase chars (excl. first letters)</t>
+  </si>
+  <si>
+    <t>Lowercase chars</t>
+  </si>
+  <si>
+    <t>Digit chars</t>
+  </si>
+  <si>
+    <t>Diacritic chars</t>
+  </si>
+  <si>
+    <t>Non-letter chars</t>
+  </si>
+  <si>
+    <t>Word count</t>
+  </si>
+  <si>
+    <t>Max words</t>
+  </si>
+  <si>
+    <t>Min words</t>
+  </si>
+  <si>
+    <t>parent_account_id</t>
+  </si>
+  <si>
+    <t>2023-11-01 12:10:53</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>calculated_balance</t>
+  </si>
+  <si>
+    <t>date_sum</t>
+  </si>
+  <si>
+    <t>initial_balance</t>
+  </si>
+  <si>
+    <t>final_balance</t>
+  </si>
+  <si>
+    <t>company_name</t>
   </si>
 </sst>
 </file>
@@ -876,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -908,6 +1030,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,62 +1353,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D309D2F-D854-4EDA-BE27-3CFE3A62DFBE}">
-  <dimension ref="B1:K70"/>
+  <dimension ref="B1:AG70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="12"/>
+      <c r="M4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1305,8 +1474,44 @@
       <c r="J5" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2">
+        <v>215</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>215</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>23220</v>
+      </c>
+      <c r="R5" s="2">
+        <v>108</v>
+      </c>
+      <c r="S5" s="2">
+        <v>80.430999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>62.209000000000003</v>
+      </c>
+      <c r="U5" s="13">
+        <v>3870</v>
+      </c>
+      <c r="V5" s="13">
+        <v>828180</v>
+      </c>
+      <c r="W5" s="13">
+        <v>3335940</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1334,8 +1539,44 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>215</v>
+      </c>
+      <c r="N6" s="2">
+        <v>215</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1363,8 +1604,44 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2">
+        <v>215</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>430</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1392,8 +1669,44 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>215</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>645</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2.605</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="V8" s="2">
+        <v>430</v>
+      </c>
+      <c r="W8" s="13">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1421,8 +1734,44 @@
       <c r="J9" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2">
+        <v>215</v>
+      </c>
+      <c r="N9" s="2">
+        <v>215</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1450,8 +1799,44 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>215</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>57057</v>
+      </c>
+      <c r="P10" s="13">
+        <v>49048</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>11010865</v>
+      </c>
+      <c r="R10" s="14">
+        <v>51213.326000000001</v>
+      </c>
+      <c r="S10" s="14">
+        <v>51154.54</v>
+      </c>
+      <c r="T10" s="14">
+        <v>2493.259</v>
+      </c>
+      <c r="U10" s="14">
+        <v>6216338.165</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1330296367.2090001</v>
+      </c>
+      <c r="W10" s="13">
+        <v>565233310545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1479,8 +1864,44 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2">
+        <v>215</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>215</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1508,8 +1929,44 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="2">
+        <v>215</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>215</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1596,30 +2053,94 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L20" s="15"/>
+      <c r="M20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
@@ -1638,8 +2159,74 @@
       <c r="G21" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="21">
+        <v>215</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>10</v>
+      </c>
+      <c r="R21" s="21">
+        <v>4050</v>
+      </c>
+      <c r="S21" s="21">
+        <v>35</v>
+      </c>
+      <c r="T21" s="21">
+        <v>5</v>
+      </c>
+      <c r="U21" s="21">
+        <v>18.837</v>
+      </c>
+      <c r="V21" s="21">
+        <v>4</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <v>1.651</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>245</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>3415</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>390</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>570</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1658,8 +2245,74 @@
       <c r="G22" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="21">
+        <v>215</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
+        <v>0</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0</v>
+      </c>
+      <c r="R22" s="21">
+        <v>1290</v>
+      </c>
+      <c r="S22" s="22">
+        <v>6</v>
+      </c>
+      <c r="T22" s="21">
+        <v>6</v>
+      </c>
+      <c r="U22" s="21">
+        <v>6</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
+      <c r="W22" s="22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>1290</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>1290</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>215</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1678,8 +2331,74 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="21">
+        <v>215</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>215</v>
+      </c>
+      <c r="R23" s="21">
+        <v>2500</v>
+      </c>
+      <c r="S23" s="21">
+        <v>21</v>
+      </c>
+      <c r="T23" s="21">
+        <v>6</v>
+      </c>
+      <c r="U23" s="21">
+        <v>11.628</v>
+      </c>
+      <c r="V23" s="21">
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>2350</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>150</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>215</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
@@ -1698,8 +2417,74 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="21">
+        <v>215</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>215</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1345</v>
+      </c>
+      <c r="S24" s="21">
+        <v>9</v>
+      </c>
+      <c r="T24" s="21">
+        <v>5</v>
+      </c>
+      <c r="U24" s="21">
+        <v>6.2560000000000002</v>
+      </c>
+      <c r="V24" s="21">
+        <v>0</v>
+      </c>
+      <c r="W24" s="21">
+        <v>0</v>
+      </c>
+      <c r="X24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>1345</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>215</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1718,8 +2503,74 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="21">
+        <v>215</v>
+      </c>
+      <c r="N25" s="21">
+        <v>215</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+      <c r="R25" s="21">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21">
+        <v>0</v>
+      </c>
+      <c r="W25" s="21">
+        <v>0</v>
+      </c>
+      <c r="X25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1779,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
@@ -2050,7 +2901,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -2080,10 +2931,10 @@
         <v>35</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2091,10 +2942,10 @@
         <v>36</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2102,10 +2953,10 @@
         <v>37</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2113,10 +2964,10 @@
         <v>38</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2124,33 +2975,33 @@
         <v>6</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="G58" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -2195,7 +3046,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2215,7 +3066,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2">
         <v>215</v>
@@ -2269,7 +3120,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B4" sqref="B4:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,10 +3143,10 @@
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2428,20 +3279,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6D511-09A0-4BF9-9BEB-36C6E5309F31}">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="B57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2452,19 +3303,19 @@
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -2695,10 +3546,10 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2943,7 +3794,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -2973,10 +3824,10 @@
         <v>35</v>
       </c>
       <c r="C49" s="8">
-        <v>45115</v>
+        <v>45078</v>
       </c>
       <c r="D49" s="8">
-        <v>45115</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2984,10 +3835,10 @@
         <v>36</v>
       </c>
       <c r="C50" s="8">
-        <v>45115</v>
+        <v>45265</v>
       </c>
       <c r="D50" s="8">
-        <v>45115</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -3017,24 +3868,24 @@
         <v>6</v>
       </c>
       <c r="C53" s="7">
-        <v>45115.03125</v>
+        <v>45122.03125</v>
       </c>
       <c r="D53" s="7">
-        <v>45115.03125</v>
+        <v>45122.03125</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -3061,7 +3912,7 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
@@ -3072,7 +3923,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3091,20 +3942,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF4862-14BF-45B1-B00B-5C09CFFFEE28}">
   <dimension ref="B1:AS62"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -3133,7 +3984,7 @@
   <sheetData>
     <row r="1" spans="2:45" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
@@ -3144,133 +3995,133 @@
     <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="Z4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.25">
@@ -4755,25 +5606,25 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -5329,29 +6180,29 @@
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="I46" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -5559,22 +6410,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -5613,7 +6464,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2">
         <v>30</v>
@@ -5630,7 +6481,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2">
         <v>260</v>
@@ -5654,19 +6505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED4C05F-3E63-4C58-A185-A21D7FC1E1D7}">
   <dimension ref="B1:BD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT48" sqref="AT48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
@@ -5719,7 +6570,7 @@
   <sheetData>
     <row r="1" spans="2:56" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:56" x14ac:dyDescent="0.25">
@@ -5730,166 +6581,166 @@
     <row r="4" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="P4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD4" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:56" x14ac:dyDescent="0.25">
@@ -7737,139 +8588,139 @@
     <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="U20" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="V20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="W20" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="X20" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="X20" s="12" t="s">
+      <c r="Y20" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="Z20" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Z20" s="12" t="s">
+      <c r="AA20" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AB20" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AC20" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AD20" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="AD20" s="12" t="s">
+      <c r="AE20" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AE20" s="12" t="s">
+      <c r="AF20" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AF20" s="12" t="s">
+      <c r="AG20" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AG20" s="12" t="s">
+      <c r="AH20" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="AH20" s="12" t="s">
+      <c r="AI20" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="AI20" s="12" t="s">
+      <c r="AJ20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AJ20" s="12" t="s">
+      <c r="AK20" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="AK20" s="12" t="s">
+      <c r="AL20" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AL20" s="12" t="s">
+      <c r="AM20" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="AM20" s="12" t="s">
+      <c r="AN20" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="AN20" s="12" t="s">
+      <c r="AO20" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="AO20" s="12" t="s">
+      <c r="AP20" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AP20" s="12" t="s">
+      <c r="AQ20" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AQ20" s="12" t="s">
+      <c r="AR20" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AR20" s="12" t="s">
+      <c r="AS20" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AS20" s="12" t="s">
+      <c r="AT20" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AT20" s="12" t="s">
+      <c r="AU20" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="AU20" s="12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:47" x14ac:dyDescent="0.25">
@@ -10823,19 +11674,19 @@
         <v>40</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.25">
@@ -10889,10 +11740,10 @@
         <v>35</v>
       </c>
       <c r="C49" s="8">
-        <v>45115</v>
+        <v>45078</v>
       </c>
       <c r="D49" s="8">
-        <v>45115</v>
+        <v>45078</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -10912,10 +11763,10 @@
         <v>36</v>
       </c>
       <c r="C50" s="8">
-        <v>45115</v>
+        <v>45265</v>
       </c>
       <c r="D50" s="8">
-        <v>45115</v>
+        <v>45265</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -11001,73 +11852,73 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="G58" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="H58" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="K58" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="L58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="M58" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="N58" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="N58" s="12" t="s">
+      <c r="O58" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="P58" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="P58" s="12" t="s">
+      <c r="Q58" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="R58" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="R58" s="12" t="s">
+      <c r="S58" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="S58" s="12" t="s">
+      <c r="T58" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="T58" s="12" t="s">
+      <c r="U58" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="U58" s="12" t="s">
+      <c r="V58" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="V58" s="12" t="s">
+      <c r="W58" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="W58" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -11208,7 +12059,7 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
@@ -11276,7 +12127,7 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -11345,4 +12196,2173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE0B005-A63B-4DA5-BFBA-EAF344CD1D23}">
+  <dimension ref="B1:R70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>216</v>
+      </c>
+      <c r="D5" s="2">
+        <v>216</v>
+      </c>
+      <c r="E5" s="2">
+        <v>216</v>
+      </c>
+      <c r="F5" s="2">
+        <v>216</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>116</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>216</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>216</v>
+      </c>
+      <c r="F7" s="2">
+        <v>198</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>23436</v>
+      </c>
+      <c r="D9" s="2">
+        <v>646</v>
+      </c>
+      <c r="E9" s="13">
+        <v>23436</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10100</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>67.52</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>62.497999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.421</v>
+      </c>
+      <c r="E12" s="2">
+        <v>62.497999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>62.042999999999999</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <v>3906</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3906</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3849.2930000000001</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13">
+        <v>839790</v>
+      </c>
+      <c r="D14" s="2">
+        <v>433.98099999999999</v>
+      </c>
+      <c r="E14" s="13">
+        <v>839790</v>
+      </c>
+      <c r="F14" s="13">
+        <v>381080</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3382596</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2366</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3382596</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1401180</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>216</v>
+      </c>
+      <c r="D21" s="2">
+        <v>216</v>
+      </c>
+      <c r="E21" s="2">
+        <v>216</v>
+      </c>
+      <c r="F21" s="2">
+        <v>216</v>
+      </c>
+      <c r="G21" s="2">
+        <v>216</v>
+      </c>
+      <c r="H21" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>116</v>
+      </c>
+      <c r="H22" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>216</v>
+      </c>
+      <c r="F25" s="2">
+        <v>216</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1296</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3333</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2506</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1351</v>
+      </c>
+      <c r="G26" s="2">
+        <v>600</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2">
+        <v>18</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15.430999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11.602</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.194</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>423</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>207</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2607</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2356</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1351</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1296</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>600</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1296</v>
+      </c>
+      <c r="D38" s="2">
+        <v>303</v>
+      </c>
+      <c r="E38" s="2">
+        <v>150</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>600</v>
+      </c>
+      <c r="H38" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2">
+        <v>216</v>
+      </c>
+      <c r="D39" s="2">
+        <v>474</v>
+      </c>
+      <c r="E39" s="2">
+        <v>216</v>
+      </c>
+      <c r="F39" s="2">
+        <v>216</v>
+      </c>
+      <c r="G39" s="2">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>216</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2">
+        <v>116</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD50A0F-D270-4E36-A789-92CAC1FEF3F8}">
+  <dimension ref="B1:T79"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>197</v>
+      </c>
+      <c r="D5" s="2">
+        <v>197</v>
+      </c>
+      <c r="E5" s="2">
+        <v>197</v>
+      </c>
+      <c r="F5" s="2">
+        <v>197</v>
+      </c>
+      <c r="G5" s="2">
+        <v>197</v>
+      </c>
+      <c r="H5" s="2">
+        <v>197</v>
+      </c>
+      <c r="I5" s="2">
+        <v>197</v>
+      </c>
+      <c r="J5" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1826</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12204</v>
+      </c>
+      <c r="G7" s="2">
+        <v>12204</v>
+      </c>
+      <c r="H7" s="13">
+        <v>10800</v>
+      </c>
+      <c r="I7" s="2">
+        <v>24725</v>
+      </c>
+      <c r="J7" s="2">
+        <v>24890</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1630</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-12204</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-7848.75</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-2035.2</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>340416</v>
+      </c>
+      <c r="D9" s="2">
+        <v>537</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4837</v>
+      </c>
+      <c r="F9" s="13">
+        <v>388800.45</v>
+      </c>
+      <c r="G9" s="2">
+        <v>388800.45</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45269.62</v>
+      </c>
+      <c r="J9" s="2">
+        <v>87269.62</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1728</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.726</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24.553000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1973.606</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1973.606</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>36.902000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>53.902000000000001</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="M13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>197</v>
+      </c>
+      <c r="D21" s="2">
+        <v>197</v>
+      </c>
+      <c r="E21" s="2">
+        <v>197</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7647</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1182</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2617</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="O28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>38.817</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13.284000000000001</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>910</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>373</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2">
+        <v>713</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>176</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5569</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1182</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1168</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1182</v>
+      </c>
+      <c r="E38" s="2">
+        <v>226</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2">
+        <v>910</v>
+      </c>
+      <c r="D39" s="2">
+        <v>197</v>
+      </c>
+      <c r="E39" s="2">
+        <v>385</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>197</v>
+      </c>
+      <c r="D47" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D49" s="8">
+        <v>45265</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="8">
+        <v>45078</v>
+      </c>
+      <c r="D50" s="8">
+        <v>45078</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.88520715277777784</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.88520715277777784</v>
+      </c>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7">
+        <v>45136.791666666664</v>
+      </c>
+      <c r="D53" s="7">
+        <v>45265.884722222225</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="O58" t="s">
+        <v>288</v>
+      </c>
+      <c r="P58" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>197</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="O59" t="s">
+        <v>260</v>
+      </c>
+      <c r="P59">
+        <v>197</v>
+      </c>
+      <c r="Q59">
+        <v>197</v>
+      </c>
+      <c r="R59">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="O60" t="s">
+        <v>261</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2">
+        <v>197</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="O61" t="s">
+        <v>262</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="K62" s="10"/>
+      <c r="O62" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K63" s="10"/>
+      <c r="O63" t="s">
+        <v>264</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K64" s="10"/>
+      <c r="O64" t="s">
+        <v>265</v>
+      </c>
+      <c r="P64">
+        <v>7647</v>
+      </c>
+      <c r="Q64">
+        <v>1182</v>
+      </c>
+      <c r="R64">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="65" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K65" s="11"/>
+      <c r="O65" t="s">
+        <v>266</v>
+      </c>
+      <c r="P65">
+        <v>49</v>
+      </c>
+      <c r="Q65">
+        <v>6</v>
+      </c>
+      <c r="R65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K66" s="11"/>
+      <c r="O66" t="s">
+        <v>267</v>
+      </c>
+      <c r="P66">
+        <v>33</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K67" s="11"/>
+      <c r="O67" t="s">
+        <v>268</v>
+      </c>
+      <c r="P67">
+        <v>38.817</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>13.284000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K68" s="11"/>
+      <c r="O68" t="s">
+        <v>269</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K69" s="11"/>
+      <c r="O69" t="s">
+        <v>270</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K70" s="10"/>
+      <c r="O70" t="s">
+        <v>271</v>
+      </c>
+      <c r="P70">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>272</v>
+      </c>
+      <c r="P71">
+        <v>910</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>273</v>
+      </c>
+      <c r="P72">
+        <v>713</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>274</v>
+      </c>
+      <c r="P73">
+        <v>5569</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>275</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>1182</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>276</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>277</v>
+      </c>
+      <c r="P76">
+        <v>1168</v>
+      </c>
+      <c r="Q76">
+        <v>1182</v>
+      </c>
+      <c r="R76">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>278</v>
+      </c>
+      <c r="P77">
+        <v>910</v>
+      </c>
+      <c r="Q77">
+        <v>197</v>
+      </c>
+      <c r="R77">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>279</v>
+      </c>
+      <c r="P78">
+        <v>6</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>280</v>
+      </c>
+      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>